--- a/MAL/mangler til 01.xlsx
+++ b/MAL/mangler til 01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\5-Semester\MAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\6-Semester\MAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DC7BE7-8002-416E-A3D8-B7A69CAAA9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0711EE-37BF-429F-A01D-C3222BADC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{42FDF79A-2D81-4F92-BCAA-3D1000168352}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42FDF79A-2D81-4F92-BCAA-3D1000168352}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Qc</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Står også I punktform. Fjern hans tekst</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -230,22 +236,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -255,15 +254,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -282,7 +278,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -578,204 +574,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E0661D-2A67-4ADA-B911-4FB8AB3792D1}">
-  <dimension ref="C2:N24"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="6" max="6" width="62.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="6" max="6" width="62.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="3:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C6" s="6" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="3:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="3:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C10" s="6" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="3:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="6" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="3:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C20" s="6" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="12" t="s">
+    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="13" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
     </row>
